--- a/EXCEL/AUTOMATION CHECKERS.xlsx
+++ b/EXCEL/AUTOMATION CHECKERS.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SELENIUM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0404B405-51A7-4DDF-BA6B-B1BCFAD96949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{916D08BB-5CBB-4514-9DBA-B07309BD55B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{C13CB821-6F36-4A54-8E9C-5661594701BE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24270" windowHeight="13800" xr2:uid="{C13CB821-6F36-4A54-8E9C-5661594701BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -533,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC06C293-B799-40C6-BA2C-33415DAD9212}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +569,9 @@
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -584,6 +583,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -595,6 +597,9 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -606,6 +611,9 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -617,6 +625,9 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -628,6 +639,9 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -639,6 +653,9 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -650,6 +667,9 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -661,6 +681,9 @@
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -671,6 +694,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
